--- a/biology/Histoire de la zoologie et de la botanique/Frédéric_Gérard_(botaniste)/Frédéric_Gérard_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frédéric_Gérard_(botaniste)/Frédéric_Gérard_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_G%C3%A9rard_(botaniste)</t>
+          <t>Frédéric_Gérard_(botaniste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric Constantin Gérard (Paris, 21 décembre 1806[1] - Paris, 7 mars 1857[2]) est un botaniste français, un des premiers penseurs de l'évolution.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Constantin Gérard (Paris, 21 décembre 1806 - Paris, 7 mars 1857) est un botaniste français, un des premiers penseurs de l'évolution.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_G%C3%A9rard_(botaniste)</t>
+          <t>Frédéric_Gérard_(botaniste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard a été influencé par les idées d'Étienne Geoffroy Saint-Hilaire et Jean-Baptiste Lamarck[3]. Il a été rédacteur en chef du Dictionnaire universel d'histoire naturelle, publié en seize volumes de 1841 à 1849 sous la direction de Charles d'Orbigny, et publie dans Extraits du Dictionnaire universel d'histoire naturelle les articles auxquels il a contribué. En 1845, dans le Dictionnaire, il a inventé l'expression « théorie de l'évolution des êtres organisés »[4]. Dans l'article « Dégénérescence », p. 847, il s'oppose à cette notion : les modifications organiques peuvent aussi être « un passage à une condition meilleure »[5].
-L'historien des sciences de Goulven Laurent a fait valoir que Gérard a été le premier à proposer clairement une théorie scientifique de l'évolution (1844-1845), et qu'il a utilisé le terme évolution plutôt que de transformisme[6],[3]. Par évolution, Gérard a fait référence à la transformation des espèces au cours du temps par la pression directe de l'évolution de l'environnement[7]. Charles Darwin avait lu l'article « Géographie zoologique » de Gérard publié dans le Dictionnaire universel d'histoire naturelle en 1845[8] et paru en tiré à part la même année[9] ; Gérard y écrit : « Si j'ai émis une idée qui semble paradoxale, celle de l'antériorité du Singe sur l'Homme, de son ordre de primogeniture, je n'ai pas entendu dire que l'Homme fût un Singe spontanément transformé ; c'est seulement, suivant moi, le chaînon qui, dans l'ordre d'évolution des Mammifères, rattache l'Homme aux groupes inférieurs ; et d'après les principes rigoureux de la loi d'évolution, la manifestation organique appelée Homme a nécessairement dû passer par le plus élevé des Quadrumanes, ce qui le relie à cet ordre, d'une manière étroite et indissoluble. »[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard a été influencé par les idées d'Étienne Geoffroy Saint-Hilaire et Jean-Baptiste Lamarck. Il a été rédacteur en chef du Dictionnaire universel d'histoire naturelle, publié en seize volumes de 1841 à 1849 sous la direction de Charles d'Orbigny, et publie dans Extraits du Dictionnaire universel d'histoire naturelle les articles auxquels il a contribué. En 1845, dans le Dictionnaire, il a inventé l'expression « théorie de l'évolution des êtres organisés ». Dans l'article « Dégénérescence », p. 847, il s'oppose à cette notion : les modifications organiques peuvent aussi être « un passage à une condition meilleure ».
+L'historien des sciences de Goulven Laurent a fait valoir que Gérard a été le premier à proposer clairement une théorie scientifique de l'évolution (1844-1845), et qu'il a utilisé le terme évolution plutôt que de transformisme,. Par évolution, Gérard a fait référence à la transformation des espèces au cours du temps par la pression directe de l'évolution de l'environnement. Charles Darwin avait lu l'article « Géographie zoologique » de Gérard publié dans le Dictionnaire universel d'histoire naturelle en 1845 et paru en tiré à part la même année ; Gérard y écrit : « Si j'ai émis une idée qui semble paradoxale, celle de l'antériorité du Singe sur l'Homme, de son ordre de primogeniture, je n'ai pas entendu dire que l'Homme fût un Singe spontanément transformé ; c'est seulement, suivant moi, le chaînon qui, dans l'ordre d'évolution des Mammifères, rattache l'Homme aux groupes inférieurs ; et d'après les principes rigoureux de la loi d'évolution, la manifestation organique appelée Homme a nécessairement dû passer par le plus élevé des Quadrumanes, ce qui le relie à cet ordre, d'une manière étroite et indissoluble. ».
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_G%C3%A9rard_(botaniste)</t>
+          <t>Frédéric_Gérard_(botaniste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De la description en histoire naturelle, 1844.
 Extraits du Dictionnaire universel d'histoire naturelle, 1845.
